--- a/расписание на вторник.xlsx
+++ b/расписание на вторник.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9b28425dc8058990/Рабочий стол/проект/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\local_admin\PycharmProjects\telegrambot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E1FD708B-5B19-4943-AC16-6F95012F98EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0EF61CC1-A389-40DE-9CEC-09F0DE92E2C6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA191C73-B5E9-4B97-A38E-B95F320E330F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17100" yWindow="0" windowWidth="17400" windowHeight="20985" xr2:uid="{9B81FA25-D02A-4C5E-8773-88AD3042532D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{9B81FA25-D02A-4C5E-8773-88AD3042532D}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -92,12 +92,6 @@
     <t>10Т английский Карпова Анна Сергеевна</t>
   </si>
   <si>
-    <t>10Т английский Моргуненко Елена Юрьевнга</t>
-  </si>
-  <si>
-    <t>10Т проект Моргуненко Елена Юрьевнга</t>
-  </si>
-  <si>
     <t>10 И английский Моргуненко Елена Юрьевна</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
     <t>8Т
 физкультура
 Зубова М.В.</t>
+  </si>
+  <si>
+    <t>10Т проект Моргуненко Елена Юрьевна</t>
+  </si>
+  <si>
+    <t>10Т английский Моргуненко Елена Юрьевна</t>
   </si>
 </sst>
 </file>
@@ -387,9 +387,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -427,7 +427,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -533,7 +533,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -675,7 +675,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,24 +685,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9BF1737-A9B2-4EDD-B850-56A3A2FC02B4}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.85546875" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.44140625" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -731,7 +731,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="54.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -771,324 +771,324 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
       <c r="G6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>38</v>
       </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>12</v>
       </c>
       <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
         <v>43</v>
       </c>
-      <c r="C9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>13</v>
       </c>
       <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>57</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>58</v>
       </c>
-      <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" t="s">
-        <v>60</v>
-      </c>
       <c r="H10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>14</v>
       </c>
       <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
         <v>48</v>
       </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>49</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>50</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:9" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>15</v>
       </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="C12" t="s">
+      <c r="F12" t="s">
         <v>61</v>
       </c>
-      <c r="D12" t="s">
+      <c r="H12" t="s">
         <v>62</v>
       </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>16</v>
       </c>
       <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
         <v>65</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>68</v>
       </c>
-      <c r="G13" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>18</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:9" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
